--- a/proceed/100-Zine_Cereales.xlsx
+++ b/proceed/100-Zine_Cereales.xlsx
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>440.11</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4911,12 +4911,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1069073729.50</t>
+          <t>758342831.99</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1076598524.04</t>
+          <t>809150947.12</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TOTAL (I+II+III)</t>
+          <t>TOTAL III</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Immobilisations produites pour l'Ese plelle même</t>
+          <t>Immobilisations produites pour l'Ese même</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Achat consommes de matières et de fournitures</t>
+          <t>Achat consommés de matières et de fournitures</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Charges d'imérêts</t>
+          <t>Charges d'intérêts</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -6623,35 +6623,13 @@
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-32741239.57</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>-23862430.75</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>RESULTAT FINANCIER (IV - V)</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6675,35 +6653,13 @@
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>22963542.18</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>16439381.68</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>RESULTAT COURANT (III - VI)</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6744,7 +6700,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>RESULTAT COURANT (Report)</t>
+          <t>VI RESULTAT COURANT (Report)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -6784,7 +6740,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>PRODUITS NON COURANTS</t>
+          <t>VII PRODUITS NON COURANTS</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -7132,7 +7088,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>CHARGES NON COURANTES</t>
+          <t>VIII CHARGES NON COURANTES</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -7436,7 +7392,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>RESULTAT NON COURANT (VIII-IX)</t>
+          <t>X RESULTAT NON COURANT (VIII-IX)</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -7488,7 +7444,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>RESULTAT AVANT IMPOTS (VI+X)</t>
+          <t>XI RESULTAT AVANT IMPOTS (VI+X)</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -7544,7 +7500,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>IMPOTS SUR LES RESULTATS</t>
+          <t>XII IMPOTS SUR LES RESULTATS</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -7596,7 +7552,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>RESULTAT NET (XI-XII)</t>
+          <t>XIII RESULTAT NET (XI-XII)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -7648,7 +7604,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>TOTAL DES PRODUITS (I+IV+VIII)</t>
+          <t>XIV TOTAL DES PRODUITS (I+IV+VIII)</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -7700,7 +7656,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>TOTAL DES CHARGES (II+V+IX+XII)</t>
+          <t>XV TOTAL DES CHARGES (II+V+IX+XII)</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -7752,7 +7708,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>RESULTAT NET (XIV-XV)</t>
+          <t>XVI RESULTAT NET (XIV-XV)</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
